--- a/test_data_Sheet1_schedule.xlsx
+++ b/test_data_Sheet1_schedule.xlsx
@@ -31,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -53,6 +53,11 @@
         <fgColor rgb="0000cc00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c0c0c0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -72,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -86,6 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -451,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,9 +465,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -492,6 +498,9 @@
     <col width="15" customWidth="1" min="31" max="31"/>
     <col width="15" customWidth="1" min="32" max="32"/>
     <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,93 +520,102 @@
         </is>
       </c>
       <c r="D1" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="G1" s="3" t="n">
         <v>45901</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="H1" s="3" t="n">
         <v>45902</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="I1" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="J1" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="K1" s="3" t="n">
         <v>45905</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="L1" s="3" t="n">
         <v>45906</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="M1" s="3" t="n">
         <v>45907</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="N1" s="3" t="n">
         <v>45908</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="O1" s="3" t="n">
         <v>45909</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="P1" s="3" t="n">
         <v>45910</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="Q1" s="3" t="n">
         <v>45911</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="R1" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="S1" s="3" t="n">
         <v>45913</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="T1" s="3" t="n">
         <v>45914</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="U1" s="3" t="n">
         <v>45915</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="V1" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="W1" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="X1" s="3" t="n">
         <v>45918</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="Y1" s="3" t="n">
         <v>45919</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="Z1" s="3" t="n">
         <v>45920</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="AA1" s="3" t="n">
         <v>45921</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="AB1" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="AC1" s="3" t="n">
         <v>45923</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AD1" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AE1" s="3" t="n">
         <v>45925</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AF1" s="3" t="n">
         <v>45926</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AG1" s="3" t="n">
         <v>45927</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AH1" s="3" t="n">
         <v>45928</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AI1" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="AG1" s="3" t="n">
+      <c r="AJ1" s="3" t="n">
         <v>45930</v>
       </c>
     </row>
@@ -614,10 +632,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>外観検査日</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="n">
+          <t>外観検査</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>14000</v>
       </c>
     </row>
@@ -634,13 +652,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネジ嵌合・スパウト嵌め日</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
+          <t>ネジ嵌合・スパウト嵌め</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>10500</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="S3" s="5" t="n">
         <v>14000</v>
       </c>
     </row>
@@ -657,13 +678,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ロック日</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
+          <t>ロック</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>10500</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="S4" s="5" t="n">
         <v>14000</v>
       </c>
     </row>
@@ -680,13 +704,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>パイプ嵌め日</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n">
+          <t>パイプ嵌め</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>10500</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="T5" s="5" t="n">
         <v>14000</v>
       </c>
     </row>
@@ -703,13 +730,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>外観検査日</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n">
+          <t>外観検査</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>10500</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="U6" s="5" t="n">
         <v>14000</v>
       </c>
     </row>
@@ -726,10 +756,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ネジ嵌合日</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="n">
+          <t>ネジ嵌合</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -746,10 +776,10 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ボタン嵌め日</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="n">
+          <t>ボタン嵌め</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -766,10 +796,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>パイプ嵌め日</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="n">
+          <t>パイプ嵌め</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -786,10 +816,10 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>外観検査日</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n">
+          <t>外観検査</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -806,10 +836,10 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ネジ嵌合日</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="n">
+          <t>ネジ嵌合</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="n">
         <v>13000</v>
       </c>
     </row>
@@ -826,10 +856,10 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ボタン嵌め日</t>
-        </is>
-      </c>
-      <c r="J12" s="6" t="n">
+          <t>ボタン嵌め</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="n">
         <v>13000</v>
       </c>
     </row>
@@ -846,10 +876,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>キャップ嵌め日</t>
-        </is>
-      </c>
-      <c r="K13" s="6" t="n">
+          <t>キャップ嵌め</t>
+        </is>
+      </c>
+      <c r="N13" s="6" t="n">
         <v>13000</v>
       </c>
     </row>
@@ -866,10 +896,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>パイプ嵌め日</t>
-        </is>
-      </c>
-      <c r="K14" s="6" t="n">
+          <t>パイプ嵌め</t>
+        </is>
+      </c>
+      <c r="N14" s="6" t="n">
         <v>13000</v>
       </c>
     </row>
@@ -886,11 +916,527 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>外観検査日</t>
-        </is>
-      </c>
-      <c r="L15" s="6" t="n">
+          <t>外観検査</t>
+        </is>
+      </c>
+      <c r="O15" s="6" t="n">
         <v>13000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>外観検査　必要人数</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>他　必要人数</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>3.069444444444445</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="T18" s="7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>欠勤</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>サンワ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="D21">
+        <f>SUM(D17:D20)</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>SUM(E17:E20)</f>
+        <v/>
+      </c>
+      <c r="F21">
+        <f>SUM(F17:F20)</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>SUM(G17:G20)</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f>SUM(H17:H20)</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>SUM(I17:I20)</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>SUM(J17:J20)</f>
+        <v/>
+      </c>
+      <c r="K21">
+        <f>SUM(K17:K20)</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <f>SUM(L17:L20)</f>
+        <v/>
+      </c>
+      <c r="M21">
+        <f>SUM(M17:M20)</f>
+        <v/>
+      </c>
+      <c r="N21">
+        <f>SUM(N17:N20)</f>
+        <v/>
+      </c>
+      <c r="O21">
+        <f>SUM(O17:O20)</f>
+        <v/>
+      </c>
+      <c r="P21">
+        <f>SUM(P17:P20)</f>
+        <v/>
+      </c>
+      <c r="Q21">
+        <f>SUM(Q17:Q20)</f>
+        <v/>
+      </c>
+      <c r="R21">
+        <f>SUM(R17:R20)</f>
+        <v/>
+      </c>
+      <c r="S21">
+        <f>SUM(S17:S20)</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>SUM(T17:T20)</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>SUM(U17:U20)</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>SUM(V17:V20)</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>SUM(W17:W20)</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>SUM(X17:X20)</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>SUM(Y17:Y20)</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>SUM(Z17:Z20)</f>
+        <v/>
+      </c>
+      <c r="AA21">
+        <f>SUM(AA17:AA20)</f>
+        <v/>
+      </c>
+      <c r="AB21">
+        <f>SUM(AB17:AB20)</f>
+        <v/>
+      </c>
+      <c r="AC21">
+        <f>SUM(AC17:AC20)</f>
+        <v/>
+      </c>
+      <c r="AD21">
+        <f>SUM(AD17:AD20)</f>
+        <v/>
+      </c>
+      <c r="AE21">
+        <f>SUM(AE17:AE20)</f>
+        <v/>
+      </c>
+      <c r="AF21">
+        <f>SUM(AF17:AF20)</f>
+        <v/>
+      </c>
+      <c r="AG21">
+        <f>SUM(AG17:AG20)</f>
+        <v/>
+      </c>
+      <c r="AH21">
+        <f>SUM(AH17:AH20)</f>
+        <v/>
+      </c>
+      <c r="AI21">
+        <f>SUM(AI17:AI20)</f>
+        <v/>
+      </c>
+      <c r="AJ21">
+        <f>SUM(AJ17:AJ20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="D22">
+        <f>B24-D21</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>B24-E21</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>B24-F21</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>B24-G21</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>B24-H21</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>B24-I21</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>B24-J21</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>B24-K21</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>B24-L21</f>
+        <v/>
+      </c>
+      <c r="M22">
+        <f>B24-M21</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>B24-N21</f>
+        <v/>
+      </c>
+      <c r="O22">
+        <f>B24-O21</f>
+        <v/>
+      </c>
+      <c r="P22">
+        <f>B24-P21</f>
+        <v/>
+      </c>
+      <c r="Q22">
+        <f>B24-Q21</f>
+        <v/>
+      </c>
+      <c r="R22">
+        <f>B24-R21</f>
+        <v/>
+      </c>
+      <c r="S22">
+        <f>B24-S21</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>B24-T21</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>B24-U21</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>B24-V21</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>B24-W21</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>B24-X21</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>B24-Y21</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>B24-Z21</f>
+        <v/>
+      </c>
+      <c r="AA22">
+        <f>B24-AA21</f>
+        <v/>
+      </c>
+      <c r="AB22">
+        <f>B24-AB21</f>
+        <v/>
+      </c>
+      <c r="AC22">
+        <f>B24-AC21</f>
+        <v/>
+      </c>
+      <c r="AD22">
+        <f>B24-AD21</f>
+        <v/>
+      </c>
+      <c r="AE22">
+        <f>B24-AE21</f>
+        <v/>
+      </c>
+      <c r="AF22">
+        <f>B24-AF21</f>
+        <v/>
+      </c>
+      <c r="AG22">
+        <f>B24-AG21</f>
+        <v/>
+      </c>
+      <c r="AH22">
+        <f>B24-AH21</f>
+        <v/>
+      </c>
+      <c r="AI22">
+        <f>B24-AI21</f>
+        <v/>
+      </c>
+      <c r="AJ22">
+        <f>B24-AJ21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>従業員数</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(入力してください)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test_data_Sheet1_schedule.xlsx
+++ b/test_data_Sheet1_schedule.xlsx
@@ -31,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -53,11 +53,6 @@
         <fgColor rgb="0000cc00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c0c0c0"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -77,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -91,7 +86,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +459,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -923,522 +917,6 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>外観検査　必要人数</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>1.857142857142857</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>他　必要人数</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>1.3125</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>3.069444444444445</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="n">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="T18" s="7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>欠勤</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>サンワ</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>合計</t>
-        </is>
-      </c>
-      <c r="D21">
-        <f>SUM(D17:D20)</f>
-        <v/>
-      </c>
-      <c r="E21">
-        <f>SUM(E17:E20)</f>
-        <v/>
-      </c>
-      <c r="F21">
-        <f>SUM(F17:F20)</f>
-        <v/>
-      </c>
-      <c r="G21">
-        <f>SUM(G17:G20)</f>
-        <v/>
-      </c>
-      <c r="H21">
-        <f>SUM(H17:H20)</f>
-        <v/>
-      </c>
-      <c r="I21">
-        <f>SUM(I17:I20)</f>
-        <v/>
-      </c>
-      <c r="J21">
-        <f>SUM(J17:J20)</f>
-        <v/>
-      </c>
-      <c r="K21">
-        <f>SUM(K17:K20)</f>
-        <v/>
-      </c>
-      <c r="L21">
-        <f>SUM(L17:L20)</f>
-        <v/>
-      </c>
-      <c r="M21">
-        <f>SUM(M17:M20)</f>
-        <v/>
-      </c>
-      <c r="N21">
-        <f>SUM(N17:N20)</f>
-        <v/>
-      </c>
-      <c r="O21">
-        <f>SUM(O17:O20)</f>
-        <v/>
-      </c>
-      <c r="P21">
-        <f>SUM(P17:P20)</f>
-        <v/>
-      </c>
-      <c r="Q21">
-        <f>SUM(Q17:Q20)</f>
-        <v/>
-      </c>
-      <c r="R21">
-        <f>SUM(R17:R20)</f>
-        <v/>
-      </c>
-      <c r="S21">
-        <f>SUM(S17:S20)</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>SUM(T17:T20)</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>SUM(U17:U20)</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>SUM(V17:V20)</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>SUM(W17:W20)</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>SUM(X17:X20)</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>SUM(Y17:Y20)</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>SUM(Z17:Z20)</f>
-        <v/>
-      </c>
-      <c r="AA21">
-        <f>SUM(AA17:AA20)</f>
-        <v/>
-      </c>
-      <c r="AB21">
-        <f>SUM(AB17:AB20)</f>
-        <v/>
-      </c>
-      <c r="AC21">
-        <f>SUM(AC17:AC20)</f>
-        <v/>
-      </c>
-      <c r="AD21">
-        <f>SUM(AD17:AD20)</f>
-        <v/>
-      </c>
-      <c r="AE21">
-        <f>SUM(AE17:AE20)</f>
-        <v/>
-      </c>
-      <c r="AF21">
-        <f>SUM(AF17:AF20)</f>
-        <v/>
-      </c>
-      <c r="AG21">
-        <f>SUM(AG17:AG20)</f>
-        <v/>
-      </c>
-      <c r="AH21">
-        <f>SUM(AH17:AH20)</f>
-        <v/>
-      </c>
-      <c r="AI21">
-        <f>SUM(AI17:AI20)</f>
-        <v/>
-      </c>
-      <c r="AJ21">
-        <f>SUM(AJ17:AJ20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>不足</t>
-        </is>
-      </c>
-      <c r="D22">
-        <f>B24-D21</f>
-        <v/>
-      </c>
-      <c r="E22">
-        <f>B24-E21</f>
-        <v/>
-      </c>
-      <c r="F22">
-        <f>B24-F21</f>
-        <v/>
-      </c>
-      <c r="G22">
-        <f>B24-G21</f>
-        <v/>
-      </c>
-      <c r="H22">
-        <f>B24-H21</f>
-        <v/>
-      </c>
-      <c r="I22">
-        <f>B24-I21</f>
-        <v/>
-      </c>
-      <c r="J22">
-        <f>B24-J21</f>
-        <v/>
-      </c>
-      <c r="K22">
-        <f>B24-K21</f>
-        <v/>
-      </c>
-      <c r="L22">
-        <f>B24-L21</f>
-        <v/>
-      </c>
-      <c r="M22">
-        <f>B24-M21</f>
-        <v/>
-      </c>
-      <c r="N22">
-        <f>B24-N21</f>
-        <v/>
-      </c>
-      <c r="O22">
-        <f>B24-O21</f>
-        <v/>
-      </c>
-      <c r="P22">
-        <f>B24-P21</f>
-        <v/>
-      </c>
-      <c r="Q22">
-        <f>B24-Q21</f>
-        <v/>
-      </c>
-      <c r="R22">
-        <f>B24-R21</f>
-        <v/>
-      </c>
-      <c r="S22">
-        <f>B24-S21</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>B24-T21</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>B24-U21</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>B24-V21</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>B24-W21</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>B24-X21</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>B24-Y21</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>B24-Z21</f>
-        <v/>
-      </c>
-      <c r="AA22">
-        <f>B24-AA21</f>
-        <v/>
-      </c>
-      <c r="AB22">
-        <f>B24-AB21</f>
-        <v/>
-      </c>
-      <c r="AC22">
-        <f>B24-AC21</f>
-        <v/>
-      </c>
-      <c r="AD22">
-        <f>B24-AD21</f>
-        <v/>
-      </c>
-      <c r="AE22">
-        <f>B24-AE21</f>
-        <v/>
-      </c>
-      <c r="AF22">
-        <f>B24-AF21</f>
-        <v/>
-      </c>
-      <c r="AG22">
-        <f>B24-AG21</f>
-        <v/>
-      </c>
-      <c r="AH22">
-        <f>B24-AH21</f>
-        <v/>
-      </c>
-      <c r="AI22">
-        <f>B24-AI21</f>
-        <v/>
-      </c>
-      <c r="AJ22">
-        <f>B24-AJ21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>従業員数</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>(入力してください)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
